--- a/src/test/resources/vtigerExcel.xlsx
+++ b/src/test/resources/vtigerExcel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{285EA7D7-EB0C-41DA-947C-7F32B001B282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CC542907-A690-4114-A5B0-8BDBF2DF4FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="ContactOrg" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q8"/>
+  <oleSize ref="A1:D11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Test_CaseID</t>
   </si>
@@ -199,6 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -556,11 +557,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.77734375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="34.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="26.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="17.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -654,18 +655,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.21875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="30.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="23.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -749,6 +750,11 @@
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +772,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1">
@@ -826,13 +832,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -880,7 +886,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -928,7 +934,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="13.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/src/test/resources/vtigerExcel.xlsx
+++ b/src/test/resources/vtigerExcel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Test_CaseID</t>
   </si>
@@ -557,11 +557,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.77734375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="34.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="26.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="17.5546875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -663,10 +663,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.21875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="30.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="23.6640625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -750,6 +750,11 @@
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -772,7 +777,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1">
@@ -838,7 +843,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -886,7 +891,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5546875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="16.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -934,7 +939,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/src/test/resources/vtigerExcel.xlsx
+++ b/src/test/resources/vtigerExcel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CC542907-A690-4114-A5B0-8BDBF2DF4FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4597F291-AA89-4BAA-90B8-DB1A6E6FA604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="ContactOrg" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D11"/>
+  <oleSize ref="A1:V23"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>Test_CaseID</t>
   </si>
@@ -199,7 +199,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -557,11 +556,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -657,16 +656,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="1" max="1" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -752,12 +751,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -777,7 +776,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1">
@@ -837,13 +836,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -891,7 +890,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -939,7 +938,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
